--- a/events/example/BlankSheet.xlsx
+++ b/events/example/BlankSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Desktop\O-Book\events\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFE05D-E931-4912-90D1-716C1A8FF15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89FCF7E-AF71-42E4-9396-7BF6426D6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="765" windowWidth="17085" windowHeight="9615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME_FIRST" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>Edit the Event Details, available Courses, Entry Fees and Start Times on the relevant sheets.</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>M10 (SOA/BOF Member)</t>
+  </si>
+  <si>
+    <t>Student Discount</t>
+  </si>
+  <si>
+    <t>Value in £s deducted from student entries. Only deducted from over 18s.</t>
   </si>
 </sst>
 </file>
@@ -807,95 +813,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.458398263887" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H92" sheet="StartList"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T17:30:00" maxDate="1899-12-30T19:00:00"/>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fee Class" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Entry Fee" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33326" maxValue="8190848" count="3">
-        <m/>
-        <n v="8190848" u="1"/>
-        <n v="33326" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Phone number" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Email Address" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.458398379633" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H106" sheet="StartList"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T17:30:00" maxDate="1899-12-30T19:00:00"/>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fee Class" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Entry Fee" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Phone number" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Email Address" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.45839861111" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.555804745367" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H98" sheet="StartList"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T17:30:00" maxDate="1899-12-30T19:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -941,915 +865,1057 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.555804861113" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H106" sheet="StartList"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Start Time" numFmtId="20">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Course" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fee Class" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Entry Fee" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Phone number" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Email Address" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.55580509259" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H92" sheet="StartList"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Start Time" numFmtId="20">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Course" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fee Class" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Entry Fee" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33326" maxValue="8190848" count="3">
+        <m/>
+        <n v="8190848" u="1"/>
+        <n v="33326" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Phone number" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Email Address" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
-  <r>
-    <d v="1899-12-30T17:30:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:31:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:32:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:33:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:34:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:35:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:36:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:37:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:38:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:39:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:40:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:41:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:42:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:43:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:44:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:45:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:46:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:47:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:48:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:49:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:50:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:51:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:52:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:53:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:54:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:55:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:56:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:57:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:58:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:59:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:00:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:01:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:02:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:03:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:04:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:05:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:06:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:07:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:08:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:09:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:10:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:11:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:12:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:13:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:14:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:15:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:16:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:17:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:18:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:19:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:20:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:21:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:22:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:23:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:24:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:25:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:26:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:27:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:28:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:29:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:30:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:31:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:32:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:33:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:34:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:35:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:36:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:37:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:38:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:39:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:40:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:41:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:42:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:43:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:44:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:45:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:46:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:47:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:48:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:49:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:50:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:51:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:52:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:53:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:54:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:55:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:56:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:57:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:58:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:59:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T19:00:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -1859,907 +1925,907 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="105">
   <r>
-    <d v="1899-12-30T17:30:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:31:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:32:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:33:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:34:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:35:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:36:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:37:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:38:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:39:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:40:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:41:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:42:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:43:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:44:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:45:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:46:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:47:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:48:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:49:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:50:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:51:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:52:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:53:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:54:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:55:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:56:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:57:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:58:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:59:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:00:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:01:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:02:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:03:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:04:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:05:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:06:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:07:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:08:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:09:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:10:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:11:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:12:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:13:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:14:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:15:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:16:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:17:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:18:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:19:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:20:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:21:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:22:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:23:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:24:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:25:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:26:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:27:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:28:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:29:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:30:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:31:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:32:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:33:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:34:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:35:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:36:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:37:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:38:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:39:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:40:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:41:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:42:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:43:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:44:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:45:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:46:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:47:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:48:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:49:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:50:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:51:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:52:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:53:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:54:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:55:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:56:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:57:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:58:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:59:00"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T19:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2912,974 +2978,914 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
-  <r>
-    <d v="1899-12-30T17:30:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:31:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:32:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:33:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:34:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:35:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:36:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:37:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:38:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:39:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:40:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:41:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:42:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:43:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:44:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:45:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:46:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:47:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:48:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:49:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:50:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:51:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:52:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:53:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:54:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:55:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:56:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:57:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:58:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T17:59:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:00:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:01:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:02:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:03:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:04:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:05:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:06:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:07:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:08:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:09:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:10:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:11:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:12:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:13:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:14:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:15:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:16:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:17:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:18:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:19:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:20:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:21:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:22:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:23:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:24:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:25:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:26:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:27:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:28:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:29:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:30:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:31:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:32:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:33:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:34:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:35:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:36:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:37:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:38:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:39:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:40:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:41:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:42:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:43:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:44:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:45:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:46:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:47:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:48:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:49:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:50:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:51:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:52:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:53:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:54:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:55:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:56:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:57:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:58:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T18:59:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="1899-12-30T19:00:00"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -3887,47 +3893,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G6:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="0"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count - SI" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable2" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E4:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -3958,8 +3923,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B4:C7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -4014,7 +3979,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E10:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -4035,6 +4000,47 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count - Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G6:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="0"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count - SI" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4432,7 +4438,7 @@
   </sheetPr>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4467,10 +4473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4597,6 +4603,15 @@
       <c r="B12" s="13"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
